--- a/Data/Geological Landforms - 2773943594/Geological Landforms - 2773943594.xlsx
+++ b/Data/Geological Landforms - 2773943594/Geological Landforms - 2773943594.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Geological Landforms - 2773943594\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C37BFBF-4887-4183-8778-86B4DE86C0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29781B2D-F364-4ED5-B757-8CB635B0AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,6 +1115,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '복사'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
@@ -1128,6 +1137,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '로그 공유'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
@@ -1141,6 +1159,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '확인'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
@@ -1154,6 +1181,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '지금 게임 로그를 업로드하시겠습니까?\n\n게임 로그를 공개 서버에 게시하고 다른 사람들과 공유할 수 있는 링크를 제공합니다. 문제 해결에 도움이 필요하거나 모드 제작자에게 문제를 신고하려는 경우 유용합니다.\n\n개인 정보는 공유되지 않습니다.'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
@@ -1167,6 +1203,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '로그 게시자'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
@@ -1180,6 +1225,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '{0} 업로드 중'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005A000000}">
@@ -1193,6 +1247,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '{0} 링크 가져오기'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
@@ -1206,6 +1269,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '업로드 완료!'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
@@ -1219,6 +1291,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '업로드 오류: {0}'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005D000000}">
@@ -1232,6 +1313,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '클립보드에 복사되었습니다.'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005E000000}">
@@ -1245,6 +1335,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '중단'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005F000000}">
@@ -1258,6 +1357,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '재시도'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000060000000}">
@@ -1271,6 +1379,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '브라우저에서 열기'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000061000000}">
@@ -1284,6 +1401,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '권장 설정 사용'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000062000000}">
@@ -1297,6 +1423,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: 'URL 단축기 사용'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000063000000}">
@@ -1310,6 +1445,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '업로드할 때 더 짧은 링크를 생성합니다. Steam에서는 권장하지 않음-짧은 링크는 자동으로 제거됩니다.'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000064000000}">
@@ -1323,6 +1467,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '플랫폼 정보 포함'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000065000000}">
@@ -1336,6 +1489,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '로그에 CPU, 메모리 및 비디오 카드에 대한 정보를 포함합니다.'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000066000000}">
@@ -1349,6 +1511,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '로그 크기를 무제한으로 허용'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000067000000}">
@@ -1362,6 +1533,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '비활성화하면 매우 긴 로그가 문제를 일으키지 않도록 로그 크기가 10K 줄로 제한됩니다.'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000068000000}">
@@ -1375,6 +1555,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '액세스 토큰'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000069000000}">
@@ -1388,6 +1577,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '설정 시 자신의 GitHub 계정에 로그를 게시합니다. GitHub &gt; 설정 &gt; 개발자 설정 &gt; 개인 액세스 토큰에서 토큰을 붙여넣습니다. 공개 HugsLib 계정에 게시하려면 비워둡니다.\n\n귀하의 계정에 게시된 로그는 링크를 통해서만 다른 사람이 볼 수 있습니다.'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006A000000}">
@@ -1401,6 +1599,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '클립보드에'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E108" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006B000000}">
@@ -1414,6 +1621,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '업로드'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006C000000}">
@@ -1427,6 +1643,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '파일'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E110" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006D000000}">
@@ -1440,6 +1665,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '로그 파일 열기'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006E000000}">
@@ -1453,6 +1687,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '저장 폴더 열기'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006F000000}">
@@ -1466,6 +1709,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 삭제됨. 삭제 이전 번역문: '모드 폴더 열기'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000070000000}">
@@ -1492,6 +1744,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16 이전의 원문: 'Landforms'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000072000000}">
@@ -2350,6 +2611,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16 이전의 원문: 'Search for landform nearby'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B4000000}">
@@ -2363,6 +2633,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16 이전의 원문: 'Any'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B5000000}">
@@ -2376,6 +2655,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16 이전의 원문: 'Any (POI)'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B6000000}">
@@ -2389,6 +2677,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16 이전의 원문: 'Found {0} landform {1} tiles away'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B7000000}">
@@ -2402,6 +2699,15 @@
           </rPr>
           <t>2024-12-08에 소실되었던 원문이 추가되었습니다.</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16 이전의 원문: 'Could not find any {0} landform within {1} tiles (max distance can be changed in mod settings)'</t>
+        </r>
       </text>
     </comment>
     <comment ref="E185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B8000000}">
@@ -2908,6 +3214,32 @@
             <family val="2"/>
           </rPr>
           <t>2024-12-08에 새로 추가된 노드들 (21개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E245" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DF000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 새로 추가된 노드들 (9개)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F245" authorId="0" shapeId="0" xr:uid="{37D26BFA-1B60-4370-8E68-BA498D3CE4AC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-07-16에 새로 추가된 노드들 (9개)</t>
         </r>
       </text>
     </comment>
@@ -2916,7 +3248,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="961">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -2945,6 +3277,9 @@
     <t>GeologicalLandforms.Editor.Open</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>열기</t>
   </si>
   <si>
@@ -2954,6 +3289,9 @@
     <t>GeologicalLandforms.Editor.Open.Tooltip</t>
   </si>
   <si>
+    <t>Select landform to edit</t>
+  </si>
+  <si>
     <t>수정할 지형을 선택하세요</t>
   </si>
   <si>
@@ -2963,6 +3301,9 @@
     <t>GeologicalLandforms.Editor.Reset</t>
   </si>
   <si>
+    <t>Reset</t>
+  </si>
+  <si>
     <t>리셋</t>
   </si>
   <si>
@@ -2972,6 +3313,9 @@
     <t>GeologicalLandforms.Editor.Reset.Long</t>
   </si>
   <si>
+    <t>Reset this landform to default</t>
+  </si>
+  <si>
     <t>이 지형을 기본값으로 재설정</t>
   </si>
   <si>
@@ -2981,6 +3325,9 @@
     <t>GeologicalLandforms.Editor.Reset.Tooltip</t>
   </si>
   <si>
+    <t>Reset config for this landform to default</t>
+  </si>
+  <si>
     <t>이 지형에 대한 구성을 기본값으로 재설정</t>
   </si>
   <si>
@@ -2990,6 +3337,9 @@
     <t>GeologicalLandforms.Editor.Copy</t>
   </si>
   <si>
+    <t>Copy</t>
+  </si>
+  <si>
     <t>복사</t>
   </si>
   <si>
@@ -2999,6 +3349,9 @@
     <t>GeologicalLandforms.Editor.Copy.Long</t>
   </si>
   <si>
+    <t>Create a copy of this landform</t>
+  </si>
+  <si>
     <t>이 지형의 복사본 만들기</t>
   </si>
   <si>
@@ -3008,6 +3361,9 @@
     <t>GeologicalLandforms.Editor.Copy.Tooltip</t>
   </si>
   <si>
+    <t>Create a new custom landform (with selected one as template)</t>
+  </si>
+  <si>
     <t>새 사용자 지정 지형 만들기 (선택한 지형을 템플릿으로 사용)</t>
   </si>
   <si>
@@ -3017,6 +3373,9 @@
     <t>GeologicalLandforms.Editor.Delete</t>
   </si>
   <si>
+    <t>Delete</t>
+  </si>
+  <si>
     <t>삭제</t>
   </si>
   <si>
@@ -3026,6 +3385,9 @@
     <t>GeologicalLandforms.Editor.Delete.Long</t>
   </si>
   <si>
+    <t>Delete this custom landform</t>
+  </si>
+  <si>
     <t>사용자 지정 지형 삭제 선택</t>
   </si>
   <si>
@@ -3035,6 +3397,9 @@
     <t>GeologicalLandforms.Editor.Delete.Tooltip</t>
   </si>
   <si>
+    <t>Delete selected custom landform</t>
+  </si>
+  <si>
     <t>선택한 사용자 지정 지형 삭제</t>
   </si>
   <si>
@@ -3044,6 +3409,9 @@
     <t>GeologicalLandforms.Editor.Tools</t>
   </si>
   <si>
+    <t>Tools</t>
+  </si>
+  <si>
     <t>툴</t>
   </si>
   <si>
@@ -3053,6 +3421,9 @@
     <t>GeologicalLandforms.Editor.Tools.ForModDevs</t>
   </si>
   <si>
+    <t>For mod developers</t>
+  </si>
+  <si>
     <t>모드 제작자들을 위한 것입니다.</t>
   </si>
   <si>
@@ -3062,6 +3433,9 @@
     <t>GeologicalLandforms.Editor.SaveInMod</t>
   </si>
   <si>
+    <t>Save changes in mod "{0}"</t>
+  </si>
+  <si>
     <t>모드 "{0}"에 변경 사항 저장</t>
   </si>
   <si>
@@ -3071,6 +3445,9 @@
     <t>GeologicalLandforms.Editor.SaveInMod.Success</t>
   </si>
   <si>
+    <t>Successfully applied changes to file "{0}"</t>
+  </si>
+  <si>
     <t>"{0}" 파일에 변경 사항을 성공적으로 적용했습니다.</t>
   </si>
   <si>
@@ -3080,6 +3457,9 @@
     <t>GeologicalLandforms.Editor.SaveInMod.NoChanges</t>
   </si>
   <si>
+    <t>There are currently no new changes to be applied.</t>
+  </si>
+  <si>
     <t>현재 적용해야 할 새로운 변경 사항은 없습니다.</t>
   </si>
   <si>
@@ -3089,6 +3469,9 @@
     <t>GeologicalLandforms.Editor.SaveInMod.Error</t>
   </si>
   <si>
+    <t>Failed to apply changes to file "{0}"</t>
+  </si>
+  <si>
     <t>"{0}" 파일에 변경 사항을 적용하지 못했습니다.</t>
   </si>
   <si>
@@ -3098,6 +3481,9 @@
     <t>GeologicalLandforms.Editor.ConfirmReset</t>
   </si>
   <si>
+    <t>Are you sure you want to reset the config for the selected landform to default?</t>
+  </si>
+  <si>
     <t>선택한 지형에 대한 구성을 기본값으로 재설정하시겠습니까?</t>
   </si>
   <si>
@@ -3107,6 +3493,9 @@
     <t>GeologicalLandforms.Editor.ConfirmDelete</t>
   </si>
   <si>
+    <t>Are you sure you want to delete the selected custom landform? It will be gone forever!</t>
+  </si>
+  <si>
     <t>선택한 사용자 지정 지형을 삭제하시겠습니까? 영원히 사라질 것입니다!!</t>
   </si>
   <si>
@@ -3116,6 +3505,9 @@
     <t>GeologicalLandforms.Editor.ConfirmSaveInMod</t>
   </si>
   <si>
+    <t>This landform is provided by the mod "{0}". By default, when you make changes to this landform, they will be saved in your personal config folder, while the original file in the mod folder stays untouched. This has the advantage that your changes will not be overridden when the mod is updated, for example through Steam.\n\nHowever, if you are a mod developer working on "{0}", you probably want to apply your changes to the original file in the mod's folder, so that you can commit it via Git, or push out the changes as part of an update of your mod. Apply your changes to the original file in the mod folder now?</t>
+  </si>
+  <si>
     <t>이 지형은 "{0}" 모드에서 제공합니다. 기본적으로 이 지형을 변경하면 개인 설정 폴더에 저장되지만 모드 폴더의 원본 파일은 그대로 유지됩니다. 이렇게 하면 Steam 등을 통해 모드가 업데이트될 때 변경 사항이 덮어쓰이지 않는다는 장점이 있습니다.\n\n그러나 "{0}"을 만든 모드 개발자라면 모드 폴더의 원본 파일에 변경 사항을 적용하여 Git을 통해 커밋하거나 모드 업데이트의 일부로 변경 사항을 푸시하고 싶을 수 있습니다. 지금 모드 폴더의 원본 파일에 변경 사항을 적용하시겠습니까?</t>
   </si>
   <si>
@@ -3125,6 +3517,9 @@
     <t>GeologicalLandforms.Settings.Landform.Id</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>아이디</t>
   </si>
   <si>
@@ -3134,6 +3529,9 @@
     <t>GeologicalLandforms.Settings.Landform.DisplayName</t>
   </si>
   <si>
+    <t>Display name</t>
+  </si>
+  <si>
     <t>이름 표시</t>
   </si>
   <si>
@@ -3143,6 +3541,9 @@
     <t>GeologicalLandforms.Settings.Landform.DisplayNameHasDirection</t>
   </si>
   <si>
+    <t>Show direction</t>
+  </si>
+  <si>
     <t>방향 표시</t>
   </si>
   <si>
@@ -3152,6 +3553,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology</t>
   </si>
   <si>
+    <t>Topology</t>
+  </si>
+  <si>
     <t>도면</t>
   </si>
   <si>
@@ -3161,6 +3565,9 @@
     <t>GeologicalLandforms.Settings.Landform.Commonness</t>
   </si>
   <si>
+    <t>Commonness</t>
+  </si>
+  <si>
     <t>공통 사항</t>
   </si>
   <si>
@@ -3170,6 +3577,9 @@
     <t>GeologicalLandforms.Settings.Landform.HillinessRequirement</t>
   </si>
   <si>
+    <t>Hilliness</t>
+  </si>
+  <si>
     <t>언덕 조건 사항</t>
   </si>
   <si>
@@ -3179,6 +3589,9 @@
     <t>GeologicalLandforms.Settings.Landform.RoadRequirement</t>
   </si>
   <si>
+    <t>Road</t>
+  </si>
+  <si>
     <t>도로 조건 사항</t>
   </si>
   <si>
@@ -3188,6 +3601,9 @@
     <t>GeologicalLandforms.Settings.Landform.RiverRequirement</t>
   </si>
   <si>
+    <t>River</t>
+  </si>
+  <si>
     <t>강 조건 사항</t>
   </si>
   <si>
@@ -3197,6 +3613,9 @@
     <t>GeologicalLandforms.Settings.Landform.ElevationRequirement</t>
   </si>
   <si>
+    <t>Elevation</t>
+  </si>
+  <si>
     <t>고도 요구 사항</t>
   </si>
   <si>
@@ -3206,6 +3625,9 @@
     <t>GeologicalLandforms.Settings.Landform.AvgTemperatureRequirement</t>
   </si>
   <si>
+    <t>Average temperature</t>
+  </si>
+  <si>
     <t>평균 기온 요구 사항</t>
   </si>
   <si>
@@ -3215,6 +3637,9 @@
     <t>GeologicalLandforms.Settings.Landform.RainfallRequirement</t>
   </si>
   <si>
+    <t>Rainfall</t>
+  </si>
+  <si>
     <t>강수량 요구 사항</t>
   </si>
   <si>
@@ -3224,6 +3649,9 @@
     <t>GeologicalLandforms.Settings.Landform.SwampinessRequirement</t>
   </si>
   <si>
+    <t>Swampiness</t>
+  </si>
+  <si>
     <t>늪지 요구 사항</t>
   </si>
   <si>
@@ -3233,6 +3661,9 @@
     <t>GeologicalLandforms.Settings.Landform.BiomeTransitionsRequirement</t>
   </si>
   <si>
+    <t>Bordering biomes</t>
+  </si>
+  <si>
     <t>생물군계 전환 요구 사항</t>
   </si>
   <si>
@@ -3242,6 +3673,9 @@
     <t>GeologicalLandforms.Settings.Landform.TopologyValueRequirement</t>
   </si>
   <si>
+    <t>Topology value</t>
+  </si>
+  <si>
     <t>도면 값 요구 사항</t>
   </si>
   <si>
@@ -3251,6 +3685,9 @@
     <t>GeologicalLandforms.Settings.Landform.DepthInCaveSystemRequirement</t>
   </si>
   <si>
+    <t>Depth in cave system</t>
+  </si>
+  <si>
     <t>동굴의 깊이 요구 사항 시스템</t>
   </si>
   <si>
@@ -3260,6 +3697,9 @@
     <t>GeologicalLandforms.Settings.Landform.AllowSettlements</t>
   </si>
   <si>
+    <t>Allow non-player settlements</t>
+  </si>
+  <si>
     <t>플레이어 외 정착지 적용 허용</t>
   </si>
   <si>
@@ -3269,6 +3709,9 @@
     <t>GeologicalLandforms.Settings.Landform.AllowSites</t>
   </si>
   <si>
+    <t>Allow quest sites</t>
+  </si>
+  <si>
     <t>임무 지형 적용 허용</t>
   </si>
   <si>
@@ -3278,6 +3721,9 @@
     <t>GeologicalLandforms.Settings.Landform.CaveChance</t>
   </si>
   <si>
+    <t>Cave chance</t>
+  </si>
+  <si>
     <t>동굴 비율</t>
   </si>
   <si>
@@ -3287,6 +3733,9 @@
     <t>GeologicalLandforms.Settings.Landform.AllowCaves</t>
   </si>
   <si>
+    <t>Allow caves</t>
+  </si>
+  <si>
     <t>동굴 활성화</t>
   </si>
   <si>
@@ -3296,6 +3745,9 @@
     <t>GeologicalLandforms.Settings.Landform.RequireCaves</t>
   </si>
   <si>
+    <t>Require caves</t>
+  </si>
+  <si>
     <t>동굴 필수 됨</t>
   </si>
   <si>
@@ -3305,6 +3757,9 @@
     <t>GeologicalLandforms.Settings.Landform.Priority</t>
   </si>
   <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>우선 순위</t>
   </si>
   <si>
@@ -3314,6 +3769,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.AtlasSize</t>
   </si>
   <si>
+    <t>Atlas size</t>
+  </si>
+  <si>
     <t>월드 크기</t>
   </si>
   <si>
@@ -3323,6 +3781,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.TexPath</t>
   </si>
   <si>
+    <t>Tex path</t>
+  </si>
+  <si>
     <t>텍스트 경로</t>
   </si>
   <si>
@@ -3332,6 +3793,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.DrawMode</t>
   </si>
   <si>
+    <t>Draw mode</t>
+  </si>
+  <si>
     <t>드로잉 모드</t>
   </si>
   <si>
@@ -3341,6 +3805,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.DrawMode.HexRandom</t>
   </si>
   <si>
+    <t>Hex (random)</t>
+  </si>
+  <si>
     <t>헥스 (무작위)</t>
   </si>
   <si>
@@ -3350,6 +3817,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.DrawMode.HexAdjacency</t>
   </si>
   <si>
+    <t>Hex (adjacency)</t>
+  </si>
+  <si>
     <t>헥스 (인접)</t>
   </si>
   <si>
@@ -3359,6 +3829,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.DrawMode.HexAdjacencyCaves</t>
   </si>
   <si>
+    <t>Hex (cave adjacency)</t>
+  </si>
+  <si>
     <t>헥스 (동굴 인접)</t>
   </si>
   <si>
@@ -3368,6 +3841,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.DrawMode.QuadRandom</t>
   </si>
   <si>
+    <t>Quad (random)</t>
+  </si>
+  <si>
     <t>쿼드 (무작위)</t>
   </si>
   <si>
@@ -3377,6 +3853,9 @@
     <t>GeologicalLandforms.Settings.Landform.WorldTileGraphic.DrawMode.QuadStatic</t>
   </si>
   <si>
+    <t>Quad (static)</t>
+  </si>
+  <si>
     <t>쿼드 (고정)</t>
   </si>
   <si>
@@ -3386,6 +3865,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.Any</t>
   </si>
   <si>
+    <t>Any</t>
+  </si>
+  <si>
     <t>아무거나</t>
   </si>
   <si>
@@ -3395,6 +3877,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.Inland</t>
   </si>
   <si>
+    <t>Inland</t>
+  </si>
+  <si>
     <t>내륙</t>
   </si>
   <si>
@@ -3404,6 +3889,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CoastOneSide</t>
   </si>
   <si>
+    <t>Coast on one side</t>
+  </si>
+  <si>
     <t>한 면의 해안</t>
   </si>
   <si>
@@ -3413,6 +3901,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CoastTwoSides</t>
   </si>
   <si>
+    <t>Coast on two adjacent sides</t>
+  </si>
+  <si>
     <t>인접한 두 면의 해안</t>
   </si>
   <si>
@@ -3422,6 +3913,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CoastLandbridge</t>
   </si>
   <si>
+    <t>Coast on two opposite sides</t>
+  </si>
+  <si>
     <t>수평 반대의 두 면의 해안</t>
   </si>
   <si>
@@ -3431,6 +3925,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CoastThreeSides</t>
   </si>
   <si>
+    <t>Coast on three sides</t>
+  </si>
+  <si>
     <t>세 면의 해안</t>
   </si>
   <si>
@@ -3440,6 +3937,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CoastAllSides</t>
   </si>
   <si>
+    <t>Coast on all sides</t>
+  </si>
+  <si>
     <t>모든 면의 해안</t>
   </si>
   <si>
@@ -3449,6 +3949,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CliffOneSide</t>
   </si>
   <si>
+    <t>Cliff on one side</t>
+  </si>
+  <si>
     <t>한 면의 절벽</t>
   </si>
   <si>
@@ -3458,6 +3961,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CliffTwoSides</t>
   </si>
   <si>
+    <t>Cliff on two adjacent sides</t>
+  </si>
+  <si>
     <t>인접한 두 면의 절벽</t>
   </si>
   <si>
@@ -3467,6 +3973,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CliffValley</t>
   </si>
   <si>
+    <t>Cliff on two opposite sides</t>
+  </si>
+  <si>
     <t>수평 반대의 두 면의 절벽</t>
   </si>
   <si>
@@ -3476,6 +3985,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CliffThreeSides</t>
   </si>
   <si>
+    <t>Cliff on three sides</t>
+  </si>
+  <si>
     <t>세 면의 절벽</t>
   </si>
   <si>
@@ -3485,6 +3997,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CliffAllSides</t>
   </si>
   <si>
+    <t>Cliff on all sides</t>
+  </si>
+  <si>
     <t>모든 면의 절벽</t>
   </si>
   <si>
@@ -3494,6 +4009,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CliffAndCoast</t>
   </si>
   <si>
+    <t>Cliff and coast</t>
+  </si>
+  <si>
     <t>절벽 및 해안</t>
   </si>
   <si>
@@ -3503,6 +4021,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CaveEntrance</t>
   </si>
   <si>
+    <t>Cave system entrance</t>
+  </si>
+  <si>
     <t>동굴 입구 시스템</t>
   </si>
   <si>
@@ -3512,6 +4033,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.CaveTunnel</t>
   </si>
   <si>
+    <t>Cave system tunnel</t>
+  </si>
+  <si>
     <t>동굴 터널 시스템</t>
   </si>
   <si>
@@ -3521,6 +4045,9 @@
     <t>GeologicalLandforms.Settings.Landform.Topology.Ocean</t>
   </si>
   <si>
+    <t>Ocean</t>
+  </si>
+  <si>
     <t>바다</t>
   </si>
   <si>
@@ -3530,6 +4057,9 @@
     <t>GeologicalLandforms.LandformManager.LandformUpgrade</t>
   </si>
   <si>
+    <t>There are new versions available for some landforms that you previously modified. Would you like to use the new versions, or keep the old modified ones?\n\nAffected landforms:</t>
+  </si>
+  <si>
     <t>이전에 수정한 일부 지형에 새 버전을 사용할 수 있습니다. 새 버전을 사용하시겠습니까, 아니면 이전에 수정한 버전을 유지하시겠습니까? \n\N영향을 받는 지형:</t>
   </si>
   <si>
@@ -3539,6 +4069,9 @@
     <t>GeologicalLandforms.LandformManager.LandformUpgradeYes</t>
   </si>
   <si>
+    <t>Replace with new data</t>
+  </si>
+  <si>
     <t>새 데이터로 교체</t>
   </si>
   <si>
@@ -3548,6 +4081,9 @@
     <t>GeologicalLandforms.LandformManager.LandformUpgradeNo</t>
   </si>
   <si>
+    <t>Keep old data</t>
+  </si>
+  <si>
     <t>기존 데이터로 유지</t>
   </si>
   <si>
@@ -3557,6 +4093,9 @@
     <t>GeologicalLandforms.WorldMap.Landform</t>
   </si>
   <si>
+    <t>Landform</t>
+  </si>
+  <si>
     <t>지형</t>
   </si>
   <si>
@@ -3575,6 +4114,9 @@
     <t>GeologicalLandforms.WorldMap.SelectLandform</t>
   </si>
   <si>
+    <t>Select landform</t>
+  </si>
+  <si>
     <t>지형 선택</t>
   </si>
   <si>
@@ -3584,6 +4126,9 @@
     <t>GeologicalLandforms.WorldParams.Mountains</t>
   </si>
   <si>
+    <t>Mountains</t>
+  </si>
+  <si>
     <t>산</t>
   </si>
   <si>
@@ -3593,6 +4138,9 @@
     <t>GeologicalLandforms.WorldParams.CaveSystems</t>
   </si>
   <si>
+    <t>Cave systems</t>
+  </si>
+  <si>
     <t>동굴 시스템</t>
   </si>
   <si>
@@ -3602,6 +4150,9 @@
     <t>GeologicalLandforms.Rot4.0</t>
   </si>
   <si>
+    <t>northern</t>
+  </si>
+  <si>
     <t>북부</t>
   </si>
   <si>
@@ -3611,6 +4162,9 @@
     <t>GeologicalLandforms.Rot4.1</t>
   </si>
   <si>
+    <t>eastern</t>
+  </si>
+  <si>
     <t>동부</t>
   </si>
   <si>
@@ -3620,6 +4174,9 @@
     <t>GeologicalLandforms.Rot4.2</t>
   </si>
   <si>
+    <t>southern</t>
+  </si>
+  <si>
     <t>남부</t>
   </si>
   <si>
@@ -3629,6 +4186,9 @@
     <t>GeologicalLandforms.Rot4.3</t>
   </si>
   <si>
+    <t>western</t>
+  </si>
+  <si>
     <t>서부</t>
   </si>
   <si>
@@ -3638,6 +4198,9 @@
     <t>GeologicalLandforms.Rot4.Double.0</t>
   </si>
   <si>
+    <t>northeastern</t>
+  </si>
+  <si>
     <t>북동부</t>
   </si>
   <si>
@@ -3647,6 +4210,9 @@
     <t>GeologicalLandforms.Rot4.Double.1</t>
   </si>
   <si>
+    <t>southeastern</t>
+  </si>
+  <si>
     <t>남동부</t>
   </si>
   <si>
@@ -3656,6 +4222,9 @@
     <t>GeologicalLandforms.Rot4.Double.2</t>
   </si>
   <si>
+    <t>southwestern</t>
+  </si>
+  <si>
     <t>서남부</t>
   </si>
   <si>
@@ -3665,6 +4234,9 @@
     <t>GeologicalLandforms.Rot4.Double.3</t>
   </si>
   <si>
+    <t>northwestern</t>
+  </si>
+  <si>
     <t>북서부</t>
   </si>
   <si>
@@ -3674,6 +4246,9 @@
     <t>GeologicalLandforms.Landform.Corner</t>
   </si>
   <si>
+    <t>(corner)</t>
+  </si>
+  <si>
     <t>(모서리)</t>
   </si>
   <si>
@@ -3683,6 +4258,9 @@
     <t>GeologicalLandforms.Integration.PrepareLanding.Title</t>
   </si>
   <si>
+    <t>Geological Landforms</t>
+  </si>
+  <si>
     <t>Geological Landforms(지질학적 지형)</t>
   </si>
   <si>
@@ -3698,7 +4276,10 @@
     <t>HugsLogPublisher.shareBtn</t>
   </si>
   <si>
-    <t>로그 공유</t>
+    <t>Share logs</t>
+  </si>
+  <si>
+    <t>(Landform)</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.shareConfirmTitle</t>
@@ -3707,7 +4288,10 @@
     <t>HugsLogPublisher.shareConfirmTitle</t>
   </si>
   <si>
-    <t>확인</t>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.WorldMap.FindLandformPrefix</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.shareConfirmMessage</t>
@@ -3716,7 +4300,10 @@
     <t>HugsLogPublisher.shareConfirmMessage</t>
   </si>
   <si>
-    <t>지금 게임 로그를 업로드하시겠습니까?\n\n게임 로그를 공개 서버에 게시하고 다른 사람들과 공유할 수 있는 링크를 제공합니다. 문제 해결에 도움이 필요하거나 모드 제작자에게 문제를 신고하려는 경우 유용합니다.\n\n개인 정보는 공유되지 않습니다.</t>
+    <t>Upload game logs now?\n\nThis will post your game logs to a public server and give you the link to share with others. This is useful if you need help fixing a problem or would like to report an issue to a mod author.\n\nNo private information will be shared.</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.WorldMap.FindLandformPrefix</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.publisherTitle</t>
@@ -3725,7 +4312,10 @@
     <t>HugsLogPublisher.publisherTitle</t>
   </si>
   <si>
-    <t>로그 게시자</t>
+    <t>Log publisher</t>
+  </si>
+  <si>
+    <t>A landform added by the {0} mod.</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.uploading</t>
@@ -3734,7 +4324,10 @@
     <t>HugsLogPublisher.uploading</t>
   </si>
   <si>
-    <t>{0} 업로드 중</t>
+    <t>Uploading{0}</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.WorldMap.FeatureDescriptionLandform</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.shortening</t>
@@ -3743,7 +4336,10 @@
     <t>HugsLogPublisher.shortening</t>
   </si>
   <si>
-    <t>{0} 링크 가져오기</t>
+    <t>Getting link{0}</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.WorldMap.FeatureDescriptionLandform</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.uploaded</t>
@@ -3752,7 +4348,10 @@
     <t>HugsLogPublisher.uploaded</t>
   </si>
   <si>
-    <t>업로드 완료!</t>
+    <t>Upload complete!</t>
+  </si>
+  <si>
+    <t>Biomes from adjacent tiles cover some parts of this world tile.</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.uploadError</t>
@@ -3761,7 +4360,10 @@
     <t>HugsLogPublisher.uploadError</t>
   </si>
   <si>
-    <t>업로드 오류: {0}</t>
+    <t>Upload error: {0}</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.WorldMap.FeatureDescriptionBiomeTransition</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.copiedToClipboard</t>
@@ -3770,7 +4372,10 @@
     <t>HugsLogPublisher.copiedToClipboard</t>
   </si>
   <si>
-    <t>클립보드에 복사되었습니다.</t>
+    <t>Copied to clipboard.</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.WorldMap.FeatureDescriptionBiomeTransition</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.abortBtn</t>
@@ -3779,7 +4384,10 @@
     <t>HugsLogPublisher.abortBtn</t>
   </si>
   <si>
-    <t>중단</t>
+    <t>Abort</t>
+  </si>
+  <si>
+    <t>biome transition</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.retryBtn</t>
@@ -3788,7 +4396,10 @@
     <t>HugsLogPublisher.retryBtn</t>
   </si>
   <si>
-    <t>재시도</t>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.WorldMap.FeatureLabelBiomeTransition</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.browseBtn</t>
@@ -3797,7 +4408,10 @@
     <t>HugsLogPublisher.browseBtn</t>
   </si>
   <si>
-    <t>브라우저에서 열기</t>
+    <t>Open in browser</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.WorldMap.FeatureLabelBiomeTransition</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.useRecommendedSettings</t>
@@ -3806,7 +4420,10 @@
     <t>HugsLogPublisher.useRecommendedSettings</t>
   </si>
   <si>
-    <t>권장 설정 사용</t>
+    <t>Use recommended settings</t>
+  </si>
+  <si>
+    <t>Note: The {2} map feature "{1}" (which you have just enabled) conflicts with the "{0}" landform - therefore the "{0}" landform has been automatically set to disabled.</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.shortUrls</t>
@@ -3815,7 +4432,10 @@
     <t>HugsLogPublisher.shortUrls</t>
   </si>
   <si>
-    <t>URL 단축기 사용</t>
+    <t>Use URL shortener</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.Settings.Landforms.ExclusionToMutator</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.shortUrls_tip</t>
@@ -3824,7 +4444,10 @@
     <t>HugsLogPublisher.shortUrls_tip</t>
   </si>
   <si>
-    <t>업로드할 때 더 짧은 링크를 생성합니다. Steam에서는 권장하지 않음-짧은 링크는 자동으로 제거됩니다.</t>
+    <t>Produces a shorter link when uploading. Not recommended on Steam- short links are automatically removed.</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.Settings.Landforms.ExclusionToMutator</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.platformInfo</t>
@@ -3833,7 +4456,10 @@
     <t>HugsLogPublisher.platformInfo</t>
   </si>
   <si>
-    <t>플랫폼 정보 포함</t>
+    <t>Include platform information</t>
+  </si>
+  <si>
+    <t>Note: The "{0}" landform (which you have just enabled) conflicts with the {2} map feature "{1}" - therefore this {2} map feature has been automatically set to disabled.</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.platformInfo_tip</t>
@@ -3842,7 +4468,10 @@
     <t>HugsLogPublisher.platformInfo_tip</t>
   </si>
   <si>
-    <t>로그에 CPU, 메모리 및 비디오 카드에 대한 정보를 포함합니다.</t>
+    <t>Includes information about your CPU, memory and video card in the log.</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.Settings.Landforms.ExclusionToLandform</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.unlimitedLogSize</t>
@@ -3851,7 +4480,10 @@
     <t>HugsLogPublisher.unlimitedLogSize</t>
   </si>
   <si>
-    <t>로그 크기를 무제한으로 허용</t>
+    <t>Allow unlimited log size</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.Settings.Landforms.ExclusionToLandform</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.unlimitedLogSize_tip</t>
@@ -3860,7 +4492,10 @@
     <t>HugsLogPublisher.unlimitedLogSize_tip</t>
   </si>
   <si>
-    <t>비활성화하면 매우 긴 로그가 문제를 일으키지 않도록 로그 크기가 10K 줄로 제한됩니다.</t>
+    <t>When disabled, log size is limited to 10K lines to prevent very long logs from causing issues.</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.Settings.Landforms.Subheader.GeologicalLandforms</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.githubToken</t>
@@ -3869,7 +4504,10 @@
     <t>HugsLogPublisher.githubToken</t>
   </si>
   <si>
-    <t>액세스 토큰</t>
+    <t>GitHub access token</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.Settings.Landforms.Subheader.GeologicalLandforms</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.githubToken_tip</t>
@@ -3878,7 +4516,10 @@
     <t>HugsLogPublisher.githubToken_tip</t>
   </si>
   <si>
-    <t>설정 시 자신의 GitHub 계정에 로그를 게시합니다. GitHub &gt; 설정 &gt; 개발자 설정 &gt; 개인 액세스 토큰에서 토큰을 붙여넣습니다. 공개 HugsLib 계정에 게시하려면 비워둡니다.\n\n귀하의 계정에 게시된 로그는 링크를 통해서만 다른 사람이 볼 수 있습니다.</t>
+    <t>Publishes logs to your own GitHub account when set. Paste a token from GitHub &gt; Settings &gt; Developer Settings &gt; Personal access tokens. Leave blank to publish to the public HugsLib account.\n\nLogs published to your account can only be viewed by others using a link.</t>
+  </si>
+  <si>
+    <t>obsolete due to the "{0}" map feature from {1}</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.toClipboardBtn</t>
@@ -3887,7 +4528,10 @@
     <t>HugsLogPublisher.toClipboardBtn</t>
   </si>
   <si>
-    <t>클립보드에</t>
+    <t>To clipboard</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.Settings.Landforms.MadeObsoleteByMutator</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.uploadBtn</t>
@@ -3896,7 +4540,10 @@
     <t>HugsLogPublisher.uploadBtn</t>
   </si>
   <si>
-    <t>업로드</t>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Keyed+GeologicalLandforms.Settings.Landforms.MadeObsoleteByMutator</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.filesBtn</t>
@@ -3905,7 +4552,10 @@
     <t>HugsLogPublisher.filesBtn</t>
   </si>
   <si>
-    <t>파일</t>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>replaces the {1} "{0}" map feature</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.openLogFile</t>
@@ -3914,7 +4564,10 @@
     <t>HugsLogPublisher.openLogFile</t>
   </si>
   <si>
-    <t>로그 파일 열기</t>
+    <t>Open log file</t>
+  </si>
+  <si>
+    <t>GeologicalLandforms.Settings.Landforms.ReplacesMutator</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.openSaveDir</t>
@@ -3923,7 +4576,10 @@
     <t>HugsLogPublisher.openSaveDir</t>
   </si>
   <si>
-    <t>저장 폴더 열기</t>
+    <t>Open save folder</t>
+  </si>
+  <si>
+    <t>(Landform) Any (POI)</t>
   </si>
   <si>
     <t>Keyed+HugsLogPublisher.openModsDir</t>
@@ -3932,7 +4588,10 @@
     <t>HugsLogPublisher.openModsDir</t>
   </si>
   <si>
-    <t>모드 폴더 열기</t>
+    <t>Open mods folder</t>
+  </si>
+  <si>
+    <t>Map Features</t>
   </si>
   <si>
     <t>Keyed+GeologicalLandforms.Settings.Tab.General</t>
@@ -3941,6 +4600,9 @@
     <t>GeologicalLandforms.Settings.Tab.General</t>
   </si>
   <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>일반</t>
   </si>
   <si>
@@ -3950,6 +4612,9 @@
     <t>GeologicalLandforms.Settings.Tab.Landforms</t>
   </si>
   <si>
+    <t>Search for map feature nearby</t>
+  </si>
+  <si>
     <t>지형들</t>
   </si>
   <si>
@@ -3959,6 +4624,9 @@
     <t>GeologicalLandforms.Settings.Tab.BiomeConfig</t>
   </si>
   <si>
+    <t>Biome Config</t>
+  </si>
+  <si>
     <t>생물군계 구성</t>
   </si>
   <si>
@@ -3968,6 +4636,9 @@
     <t>GeologicalLandforms.Settings.Tab.BiomeVariants</t>
   </si>
   <si>
+    <t>Biome Variants</t>
+  </si>
+  <si>
     <t>생물군계 다양성</t>
   </si>
   <si>
@@ -3977,6 +4648,9 @@
     <t>GeologicalLandforms.Settings.Tab.Debug</t>
   </si>
   <si>
+    <t>Debug</t>
+  </si>
+  <si>
     <t>디버그</t>
   </si>
   <si>
@@ -3986,6 +4660,9 @@
     <t>GeologicalLandforms.Settings.MaxLandformSearchRadius</t>
   </si>
   <si>
+    <t>Max landform search radius on world map</t>
+  </si>
+  <si>
     <t>세계 지도에서 최대 지형 검색 반경</t>
   </si>
   <si>
@@ -3995,6 +4672,9 @@
     <t>GeologicalLandforms.Settings.AnimalDensityFactorForSecludedAreas</t>
   </si>
   <si>
+    <t>Animal amount in secluded areas (Island, Fjord, etc.)</t>
+  </si>
+  <si>
     <t>외딴 지역(섬, 협만 등)의 동물 수</t>
   </si>
   <si>
@@ -4004,6 +4684,9 @@
     <t>GeologicalLandforms.Settings.EnableCellFinderOptimization</t>
   </si>
   <si>
+    <t>Enable cell finder optimizations</t>
+  </si>
+  <si>
     <t>셀 찾기 최적화 사용</t>
   </si>
   <si>
@@ -4013,6 +4696,9 @@
     <t>GeologicalLandforms.Settings.EnableLandformScaling</t>
   </si>
   <si>
+    <t>Scale landforms with map size</t>
+  </si>
+  <si>
     <t>지도 크기에 따라 지형 크기 조정</t>
   </si>
   <si>
@@ -4022,6 +4708,9 @@
     <t>GeologicalLandforms.Settings.EnableExperimentalLandforms</t>
   </si>
   <si>
+    <t>Enable experimental landforms</t>
+  </si>
+  <si>
     <t>실험적 지형 활성화</t>
   </si>
   <si>
@@ -4031,6 +4720,9 @@
     <t>GeologicalLandforms.Settings.EnableGodMode</t>
   </si>
   <si>
+    <t>Enable god mode (allows placing landforms manually)</t>
+  </si>
+  <si>
     <t>신 모드 활성화(수동으로 지형 배치 가능)</t>
   </si>
   <si>
@@ -4040,6 +4732,9 @@
     <t>GeologicalLandforms.Settings.OpenEditor</t>
   </si>
   <si>
+    <t>Open landform editor</t>
+  </si>
+  <si>
     <t>지형 편집기 열기</t>
   </si>
   <si>
@@ -4049,6 +4744,9 @@
     <t>GeologicalLandforms.Settings.ResetAll</t>
   </si>
   <si>
+    <t>Reset everything to default</t>
+  </si>
+  <si>
     <t>모든 항목을 기본값으로 초기화</t>
   </si>
   <si>
@@ -4058,6 +4756,9 @@
     <t>GeologicalLandforms.Settings.OpenDataDir</t>
   </si>
   <si>
+    <t>Open custom landform data directory</t>
+  </si>
+  <si>
     <t>사용자 지정 지형 데이터 디렉터리 열기</t>
   </si>
   <si>
@@ -4067,6 +4768,9 @@
     <t>GeologicalLandforms.Settings.ConfirmResetAll</t>
   </si>
   <si>
+    <t>Are you sure you want to fully reset the settings for this mod, including all landform configs? This will also unrecoverably delete ALL custom landforms you created!</t>
+  </si>
+  <si>
     <t>모든 지형 구성을 포함하여 이 모드의 설정을 완전히 초기화하시겠습니까? 이렇게 하면 생성한 모든 커스텀 지형이 복구 불가능하게 삭제됩니다!</t>
   </si>
   <si>
@@ -4076,6 +4780,9 @@
     <t>GeologicalLandforms.Settings.Landforms.Custom</t>
   </si>
   <si>
+    <t>custom</t>
+  </si>
+  <si>
     <t>사용자 정의</t>
   </si>
   <si>
@@ -4085,6 +4792,9 @@
     <t>GeologicalLandforms.Settings.Landforms.Experimental</t>
   </si>
   <si>
+    <t>experimental</t>
+  </si>
+  <si>
     <t>실험적</t>
   </si>
   <si>
@@ -4094,6 +4804,9 @@
     <t>GeologicalLandforms.Settings.Landforms.DefinedInMod</t>
   </si>
   <si>
+    <t>provided by mod {0}</t>
+  </si>
+  <si>
     <t>모드 {0}에서 제공</t>
   </si>
   <si>
@@ -4103,6 +4816,9 @@
     <t>GeologicalLandforms.Settings.Landforms.ZeroCommonness</t>
   </si>
   <si>
+    <t>misconfigured with 0 commonness</t>
+  </si>
+  <si>
     <t>공통성이 0으로 잘못 구성됨</t>
   </si>
   <si>
@@ -4112,6 +4828,9 @@
     <t>GeologicalLandforms.Settings.Landforms.ReplacesVanillaCliff</t>
   </si>
   <si>
+    <t>replaces vanilla cliff</t>
+  </si>
+  <si>
     <t>바닐라 절벽을 대체합니다.</t>
   </si>
   <si>
@@ -4121,6 +4840,9 @@
     <t>GeologicalLandforms.Settings.Landforms.ReplacesVanillaCoast</t>
   </si>
   <si>
+    <t>replaces vanilla coast</t>
+  </si>
+  <si>
     <t>바닐라 해변을 대체합니다.</t>
   </si>
   <si>
@@ -4130,6 +4852,9 @@
     <t>GeologicalLandforms.Settings.BiomeConfig.Header</t>
   </si>
   <si>
+    <t>Configure for each biome whether landforms (LF) and multi-biome features (MB) can appear there:</t>
+  </si>
+  <si>
     <t>각 생물 군계에 대해 지형(LF) 및 다중 생물 군계 특징(MB)을 표시할 수 있는지 여부를 구성합니다:</t>
   </si>
   <si>
@@ -4139,6 +4864,9 @@
     <t>GeologicalLandforms.Settings.BiomeConfig.ExcludedByAuthor</t>
   </si>
   <si>
+    <t>preconfigured by author</t>
+  </si>
+  <si>
     <t>작성자가 사전에 구성함</t>
   </si>
   <si>
@@ -4148,6 +4876,9 @@
     <t>GeologicalLandforms.Settings.Debug.ShowWorldTileDebugInfo</t>
   </si>
   <si>
+    <t>Show advanced debug info</t>
+  </si>
+  <si>
     <t>고급 디버그 정보 표시</t>
   </si>
   <si>
@@ -4157,15 +4888,15 @@
     <t>GeologicalLandforms.Settings.Debug.EnableMapDebugPawnCommands</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Keyed+GeologicalLandforms.Settings.Debug.UnidirectionalBiomeTransitions</t>
   </si>
   <si>
     <t>GeologicalLandforms.Settings.Debug.UnidirectionalBiomeTransitions</t>
   </si>
   <si>
+    <t>Use unidirectional biome transition algorithm (experimental)</t>
+  </si>
+  <si>
     <t>단방향 바이옴 전환 알고리즘 사용(실험)</t>
   </si>
   <si>
@@ -4175,6 +4906,9 @@
     <t>GeologicalLandforms.Settings.Debug.DisableBiomeTransitionPostProcessing</t>
   </si>
   <si>
+    <t>Disable biome transition post-processing</t>
+  </si>
+  <si>
     <t>생물군계 전환 후처리 비활성화</t>
   </si>
   <si>
@@ -4184,6 +4918,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEnabledForCurrentMap</t>
   </si>
   <si>
+    <t>Biome grid enabled (on current map)</t>
+  </si>
+  <si>
     <t>생물군계 그리드 활성화(현재 맵에서)</t>
   </si>
   <si>
@@ -4193,6 +4930,9 @@
     <t>GeologicalLandforms.Settings.Debug.IgnoreWorldTileReqInGodMode</t>
   </si>
   <si>
+    <t>Ignore world tile requirements (unsafe)</t>
+  </si>
+  <si>
     <t>월드 타일 요구 사항 무시(안전하지 않음)</t>
   </si>
   <si>
@@ -4202,6 +4942,9 @@
     <t>GeologicalLandforms.Settings.Debug.ReplaceStoneOnCurrentMap</t>
   </si>
   <si>
+    <t>Replace all stone on current map</t>
+  </si>
+  <si>
     <t>현재 맵의 모든 돌 교체</t>
   </si>
   <si>
@@ -4211,6 +4954,9 @@
     <t>GeologicalLandforms.Settings.Debug.SetTerrainInArea</t>
   </si>
   <si>
+    <t>Set terrain in area</t>
+  </si>
+  <si>
     <t>지역 내 지형 설정</t>
   </si>
   <si>
@@ -4220,6 +4966,9 @@
     <t>GeologicalLandforms.Settings.Debug.RefreshWorldTileData</t>
   </si>
   <si>
+    <t>Refresh all world tiles</t>
+  </si>
+  <si>
     <t>모든 월드 타일 새로 고침</t>
   </si>
   <si>
@@ -4229,6 +4978,9 @@
     <t>GeologicalLandforms.Settings.Debug.RefreshWorldTileDataForced</t>
   </si>
   <si>
+    <t>Refresh all world tiles (forced)</t>
+  </si>
+  <si>
     <t>모든 월드 타일 새로 고침(강제)</t>
   </si>
   <si>
@@ -4238,6 +4990,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntriesHeader</t>
   </si>
   <si>
+    <t>Biome grid entries</t>
+  </si>
+  <si>
     <t>생물군계 그리드 항목</t>
   </si>
   <si>
@@ -4247,6 +5002,9 @@
     <t>GeologicalLandforms.Settings.Debug.WholeMapDesiredPlants</t>
   </si>
   <si>
+    <t>Total capacity of plant ecosystem</t>
+  </si>
+  <si>
     <t>식물 생태계의 총 용량</t>
   </si>
   <si>
@@ -4256,6 +5014,9 @@
     <t>GeologicalLandforms.Settings.Debug.OpenGroundFactor</t>
   </si>
   <si>
+    <t>Open ground factor</t>
+  </si>
+  <si>
     <t>개방 접지 계수</t>
   </si>
   <si>
@@ -4265,6 +5026,9 @@
     <t>GeologicalLandforms.Settings.Debug.AnimalDensityFactor</t>
   </si>
   <si>
+    <t>Animal density factor</t>
+  </si>
+  <si>
     <t>동물 밀도 계수</t>
   </si>
   <si>
@@ -4274,6 +5038,9 @@
     <t>GeologicalLandforms.Settings.Debug.DevQuickTestOverrideEnabled</t>
   </si>
   <si>
+    <t>Override dev quick test map generation</t>
+  </si>
+  <si>
     <t>(개발자) 빠른 테스트 맵 생성 재정의</t>
   </si>
   <si>
@@ -4283,6 +5050,9 @@
     <t>GeologicalLandforms.Settings.Debug.DevQuickTestOverrideLandform</t>
   </si>
   <si>
+    <t>Dev quick test landform</t>
+  </si>
+  <si>
     <t>(개발자) 빠른 지형 테스트</t>
   </si>
   <si>
@@ -4292,6 +5062,9 @@
     <t>GeologicalLandforms.Settings.Debug.DevQuickTestOverrideBiome</t>
   </si>
   <si>
+    <t>Dev quick test biome</t>
+  </si>
+  <si>
     <t>(개발자) 빠른 바이옴 테스트</t>
   </si>
   <si>
@@ -4301,6 +5074,9 @@
     <t>GeologicalLandforms.Settings.Debug.DevQuickTestOverrideMapSize</t>
   </si>
   <si>
+    <t>Dev quick test map size</t>
+  </si>
+  <si>
     <t>개발 빠른 맵 크기 테스트</t>
   </si>
   <si>
@@ -4382,6 +5158,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryAdd</t>
   </si>
   <si>
+    <t>Add entry</t>
+  </si>
+  <si>
     <t>항목 추가</t>
   </si>
   <si>
@@ -4391,6 +5170,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryRemove</t>
   </si>
   <si>
+    <t>Remove entry</t>
+  </si>
+  <si>
     <t>항목 제거</t>
   </si>
   <si>
@@ -4400,6 +5182,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryExportToAreas</t>
   </si>
   <si>
+    <t>Export all entries to Map Areas</t>
+  </si>
+  <si>
     <t>모든 항목을 맵 영역으로 내보내기</t>
   </si>
   <si>
@@ -4409,6 +5194,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntrySetBase</t>
   </si>
   <si>
+    <t>Set base biome</t>
+  </si>
+  <si>
     <t>기본 생물군계 설정</t>
   </si>
   <si>
@@ -4418,6 +5206,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryInfo</t>
   </si>
   <si>
+    <t>Show details</t>
+  </si>
+  <si>
     <t>세부 정보 표시</t>
   </si>
   <si>
@@ -4427,6 +5218,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryAddVariant</t>
   </si>
   <si>
+    <t>Add variant</t>
+  </si>
+  <si>
     <t>변형 추가</t>
   </si>
   <si>
@@ -4436,6 +5230,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryRemoveVariant</t>
   </si>
   <si>
+    <t>Remove variant</t>
+  </si>
+  <si>
     <t>변형 제거</t>
   </si>
   <si>
@@ -4445,6 +5242,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntrySetFromArea</t>
   </si>
   <si>
+    <t>Set cells from Map Area</t>
+  </si>
+  <si>
     <t>지도 영역에서</t>
   </si>
   <si>
@@ -4454,6 +5254,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridDetails.PotentialPlants</t>
   </si>
   <si>
+    <t>Plant commonalities</t>
+  </si>
+  <si>
     <t>식물 공통점</t>
   </si>
   <si>
@@ -4463,6 +5266,9 @@
     <t>GeologicalLandforms.Settings.Debug.BiomeGridDetails.PotentialAnimals</t>
   </si>
   <si>
+    <t>Animal commonalities</t>
+  </si>
+  <si>
     <t>동물 공통점</t>
   </si>
   <si>
@@ -4478,6 +5284,9 @@
     <t>GeologicalLandforms.WorldMap.TopologyDirection</t>
   </si>
   <si>
+    <t>Topology direction</t>
+  </si>
+  <si>
     <t>도면 방향</t>
   </si>
   <si>
@@ -4496,6 +5305,9 @@
     <t>GeologicalLandforms.WorldMap.RiverWidth</t>
   </si>
   <si>
+    <t>River width</t>
+  </si>
+  <si>
     <t>강 폭</t>
   </si>
   <si>
@@ -4505,6 +5317,9 @@
     <t>GeologicalLandforms.WorldMap.RiverAngle</t>
   </si>
   <si>
+    <t>River angle</t>
+  </si>
+  <si>
     <t>강 각도</t>
   </si>
   <si>
@@ -4514,6 +5329,9 @@
     <t>GeologicalLandforms.WorldMap.MainRoadMultiplier</t>
   </si>
   <si>
+    <t>Main road multiplier</t>
+  </si>
+  <si>
     <t>도로 승수</t>
   </si>
   <si>
@@ -4523,6 +5341,9 @@
     <t>GeologicalLandforms.WorldMap.MainRoadAngle</t>
   </si>
   <si>
+    <t>Main road angle</t>
+  </si>
+  <si>
     <t>도로 각도</t>
   </si>
   <si>
@@ -4541,6 +5362,9 @@
     <t>GeologicalLandforms.WorldMap.FindLandform</t>
   </si>
   <si>
+    <t>(Landform) Any</t>
+  </si>
+  <si>
     <t>주변의 특정 지형 검색을 합니다</t>
   </si>
   <si>
@@ -4556,6 +5380,9 @@
     <t>GeologicalLandforms.WorldMap.FindLandformAnyPOI</t>
   </si>
   <si>
+    <t>Found {0} map feature {1} tiles away</t>
+  </si>
+  <si>
     <t>아무거나 (POI)</t>
   </si>
   <si>
@@ -4565,6 +5392,9 @@
     <t>GeologicalLandforms.WorldMap.FindLandformSuccess</t>
   </si>
   <si>
+    <t>Could not find any {0} map feature within {1} tiles (max distance can be changed in mod settings)</t>
+  </si>
+  <si>
     <t>{0} 타일 떨어진 곳에서 {1} 지형 발견</t>
   </si>
   <si>
@@ -4574,6 +5404,9 @@
     <t>GeologicalLandforms.WorldMap.FindLandformFail</t>
   </si>
   <si>
+    <t>Keyed+GeologicalLandforms.Settings.Landforms.ReplacesMutator</t>
+  </si>
+  <si>
     <t>{1} 타일 내에서 {0} 지형을 찾을 수 없습니다(최대 거리는 모드 설정에서 변경 가능).</t>
   </si>
   <si>
@@ -4583,6 +5416,9 @@
     <t>GeologicalLandforms.WorldMap.SetLandform</t>
   </si>
   <si>
+    <t>Set landform override (god mode)</t>
+  </si>
+  <si>
     <t>지형 덮어쓰기 설정(신 모드)</t>
   </si>
   <si>
@@ -4592,6 +5428,9 @@
     <t>GeologicalLandforms.WorldMap.SetLandformAuto</t>
   </si>
   <si>
+    <t>Auto</t>
+  </si>
+  <si>
     <t>자동</t>
   </si>
   <si>
@@ -4601,6 +5440,9 @@
     <t>GeologicalLandforms.Landform.Coast</t>
   </si>
   <si>
+    <t>coast</t>
+  </si>
+  <si>
     <t>해안</t>
   </si>
   <si>
@@ -4616,6 +5458,9 @@
     <t>GeologicalLandforms.Landform.Cove</t>
   </si>
   <si>
+    <t>cove</t>
+  </si>
+  <si>
     <t>작은 만</t>
   </si>
   <si>
@@ -4625,6 +5470,9 @@
     <t>GeologicalLandforms.Landform.CoveWithIsland</t>
   </si>
   <si>
+    <t>cove with island</t>
+  </si>
+  <si>
     <t>작은 만과 섬</t>
   </si>
   <si>
@@ -4634,6 +5482,9 @@
     <t>GeologicalLandforms.Landform.Peninsula</t>
   </si>
   <si>
+    <t>peninsula</t>
+  </si>
+  <si>
     <t>반도</t>
   </si>
   <si>
@@ -4643,6 +5494,9 @@
     <t>GeologicalLandforms.Landform.Landbridge</t>
   </si>
   <si>
+    <t>isthmus</t>
+  </si>
+  <si>
     <t>육교</t>
   </si>
   <si>
@@ -4652,6 +5506,9 @@
     <t>GeologicalLandforms.Landform.Tombolo</t>
   </si>
   <si>
+    <t>tombolo</t>
+  </si>
+  <si>
     <t>육계사주</t>
   </si>
   <si>
@@ -4661,6 +5518,9 @@
     <t>GeologicalLandforms.Landform.CoastalIsland</t>
   </si>
   <si>
+    <t>coastal island</t>
+  </si>
+  <si>
     <t>평행사도</t>
   </si>
   <si>
@@ -4670,6 +5530,9 @@
     <t>GeologicalLandforms.Landform.Island</t>
   </si>
   <si>
+    <t>island</t>
+  </si>
+  <si>
     <t>섬</t>
   </si>
   <si>
@@ -4679,6 +5542,9 @@
     <t>GeologicalLandforms.Landform.Atoll</t>
   </si>
   <si>
+    <t>atoll</t>
+  </si>
+  <si>
     <t>환초</t>
   </si>
   <si>
@@ -4688,6 +5554,9 @@
     <t>GeologicalLandforms.Landform.Archipelago</t>
   </si>
   <si>
+    <t>archipelago</t>
+  </si>
+  <si>
     <t>군도</t>
   </si>
   <si>
@@ -4697,6 +5566,9 @@
     <t>GeologicalLandforms.Landform.Lake</t>
   </si>
   <si>
+    <t>lake</t>
+  </si>
+  <si>
     <t>호수</t>
   </si>
   <si>
@@ -4706,6 +5578,9 @@
     <t>GeologicalLandforms.Landform.LakeWithIsland</t>
   </si>
   <si>
+    <t>lake with island</t>
+  </si>
+  <si>
     <t>호수 섬</t>
   </si>
   <si>
@@ -4715,6 +5590,9 @@
     <t>GeologicalLandforms.Landform.DryLake</t>
   </si>
   <si>
+    <t>dry lake</t>
+  </si>
+  <si>
     <t>건호</t>
   </si>
   <si>
@@ -4724,6 +5602,9 @@
     <t>GeologicalLandforms.Landform.Cliff</t>
   </si>
   <si>
+    <t>cliff</t>
+  </si>
+  <si>
     <t>절벽</t>
   </si>
   <si>
@@ -4739,6 +5620,9 @@
     <t>GeologicalLandforms.Landform.CliffAndCoast</t>
   </si>
   <si>
+    <t>coast with cliff</t>
+  </si>
+  <si>
     <t>암석 해안</t>
   </si>
   <si>
@@ -4748,6 +5632,9 @@
     <t>GeologicalLandforms.Landform.Cirque</t>
   </si>
   <si>
+    <t>cirque</t>
+  </si>
+  <si>
     <t>권곡</t>
   </si>
   <si>
@@ -4757,6 +5644,9 @@
     <t>GeologicalLandforms.Landform.Valley</t>
   </si>
   <si>
+    <t>valley</t>
+  </si>
+  <si>
     <t>계곡</t>
   </si>
   <si>
@@ -4766,6 +5656,9 @@
     <t>GeologicalLandforms.Landform.Canyon</t>
   </si>
   <si>
+    <t>canyon</t>
+  </si>
+  <si>
     <t>협곡</t>
   </si>
   <si>
@@ -4775,6 +5668,9 @@
     <t>GeologicalLandforms.Landform.LoneMountain</t>
   </si>
   <si>
+    <t>lone mountain</t>
+  </si>
+  <si>
     <t>중앙산</t>
   </si>
   <si>
@@ -4784,6 +5680,9 @@
     <t>GeologicalLandforms.Landform.Caldera</t>
   </si>
   <si>
+    <t>caldera</t>
+  </si>
+  <si>
     <t>칼데라</t>
   </si>
   <si>
@@ -4793,6 +5692,9 @@
     <t>GeologicalLandforms.Landform.Rift</t>
   </si>
   <si>
+    <t>rift</t>
+  </si>
+  <si>
     <t>틈새</t>
   </si>
   <si>
@@ -4802,6 +5704,9 @@
     <t>GeologicalLandforms.Landform.Crater</t>
   </si>
   <si>
+    <t>crater</t>
+  </si>
+  <si>
     <t>분화구</t>
   </si>
   <si>
@@ -4811,6 +5716,9 @@
     <t>GeologicalLandforms.Landform.Oasis</t>
   </si>
   <si>
+    <t>oasis</t>
+  </si>
+  <si>
     <t>오아시스</t>
   </si>
   <si>
@@ -4820,6 +5728,9 @@
     <t>GeologicalLandforms.Landform.SwampHill</t>
   </si>
   <si>
+    <t>swamp hill</t>
+  </si>
+  <si>
     <t>늪지 언덕</t>
   </si>
   <si>
@@ -4829,12 +5740,30 @@
     <t>GeologicalLandforms.Landform.IceOasis</t>
   </si>
   <si>
+    <t>ice oasis</t>
+  </si>
+  <si>
     <t>Keyed+GeologicalLandforms.Landform.Badlands</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>얼음 오아시스</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.Badlands</t>
   </si>
   <si>
+    <t>badlands</t>
+  </si>
+  <si>
     <t>악지</t>
   </si>
   <si>
@@ -4844,6 +5773,9 @@
     <t>GeologicalLandforms.Landform.DesertPlateau</t>
   </si>
   <si>
+    <t>desert plateau</t>
+  </si>
+  <si>
     <t>사막 고원</t>
   </si>
   <si>
@@ -4853,6 +5785,9 @@
     <t>GeologicalLandforms.Landform.Skerry</t>
   </si>
   <si>
+    <t>skerry</t>
+  </si>
+  <si>
     <t>암초</t>
   </si>
   <si>
@@ -4862,6 +5797,9 @@
     <t>GeologicalLandforms.Landform.Fjord</t>
   </si>
   <si>
+    <t>fjord</t>
+  </si>
+  <si>
     <t>협만</t>
   </si>
   <si>
@@ -4871,6 +5809,9 @@
     <t>GeologicalLandforms.Landform.SecludedCove</t>
   </si>
   <si>
+    <t>secluded cove</t>
+  </si>
+  <si>
     <t>고립된 작은 만</t>
   </si>
   <si>
@@ -4880,6 +5821,9 @@
     <t>GeologicalLandforms.Landform.SurfaceCave</t>
   </si>
   <si>
+    <t>surface cave</t>
+  </si>
+  <si>
     <t>뚫린 동굴</t>
   </si>
   <si>
@@ -4889,6 +5833,9 @@
     <t>GeologicalLandforms.Landform.CaveEntrance</t>
   </si>
   <si>
+    <t>cave entrance</t>
+  </si>
+  <si>
     <t>동굴 입구</t>
   </si>
   <si>
@@ -4898,6 +5845,9 @@
     <t>GeologicalLandforms.Landform.Sinkhole</t>
   </si>
   <si>
+    <t>sinkhole</t>
+  </si>
+  <si>
     <t>싱크홀</t>
   </si>
   <si>
@@ -4907,618 +5857,12 @@
     <t>GeologicalLandforms.Landform.SecludedValley</t>
   </si>
   <si>
+    <t>secluded valley</t>
+  </si>
+  <si>
     <t>외딴 계곡</t>
   </si>
   <si>
-    <t>Select landform to edit</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Reset this landform to default</t>
-  </si>
-  <si>
-    <t>Reset config for this landform to default</t>
-  </si>
-  <si>
-    <t>Copy</t>
-  </si>
-  <si>
-    <t>Create a copy of this landform</t>
-  </si>
-  <si>
-    <t>Create a new custom landform (with selected one as template)</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Delete this custom landform</t>
-  </si>
-  <si>
-    <t>Delete selected custom landform</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>For mod developers</t>
-  </si>
-  <si>
-    <t>Save changes in mod "{0}"</t>
-  </si>
-  <si>
-    <t>Successfully applied changes to file "{0}"</t>
-  </si>
-  <si>
-    <t>There are currently no new changes to be applied.</t>
-  </si>
-  <si>
-    <t>Failed to apply changes to file "{0}"</t>
-  </si>
-  <si>
-    <t>Are you sure you want to reset the config for the selected landform to default?</t>
-  </si>
-  <si>
-    <t>Are you sure you want to delete the selected custom landform? It will be gone forever!</t>
-  </si>
-  <si>
-    <t>This landform is provided by the mod "{0}". By default, when you make changes to this landform, they will be saved in your personal config folder, while the original file in the mod folder stays untouched. This has the advantage that your changes will not be overridden when the mod is updated, for example through Steam.\n\nHowever, if you are a mod developer working on "{0}", you probably want to apply your changes to the original file in the mod's folder, so that you can commit it via Git, or push out the changes as part of an update of your mod. Apply your changes to the original file in the mod folder now?</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Display name</t>
-  </si>
-  <si>
-    <t>Show direction</t>
-  </si>
-  <si>
-    <t>Topology</t>
-  </si>
-  <si>
-    <t>Commonness</t>
-  </si>
-  <si>
-    <t>Hilliness</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Elevation</t>
-  </si>
-  <si>
-    <t>Average temperature</t>
-  </si>
-  <si>
-    <t>Rainfall</t>
-  </si>
-  <si>
-    <t>Swampiness</t>
-  </si>
-  <si>
-    <t>Bordering biomes</t>
-  </si>
-  <si>
-    <t>Topology value</t>
-  </si>
-  <si>
-    <t>Depth in cave system</t>
-  </si>
-  <si>
-    <t>Allow non-player settlements</t>
-  </si>
-  <si>
-    <t>Allow quest sites</t>
-  </si>
-  <si>
-    <t>Cave chance</t>
-  </si>
-  <si>
-    <t>Allow caves</t>
-  </si>
-  <si>
-    <t>Require caves</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Atlas size</t>
-  </si>
-  <si>
-    <t>Tex path</t>
-  </si>
-  <si>
-    <t>Draw mode</t>
-  </si>
-  <si>
-    <t>Hex (random)</t>
-  </si>
-  <si>
-    <t>Hex (adjacency)</t>
-  </si>
-  <si>
-    <t>Hex (cave adjacency)</t>
-  </si>
-  <si>
-    <t>Quad (random)</t>
-  </si>
-  <si>
-    <t>Quad (static)</t>
-  </si>
-  <si>
-    <t>Any</t>
-  </si>
-  <si>
-    <t>Inland</t>
-  </si>
-  <si>
-    <t>Coast on one side</t>
-  </si>
-  <si>
-    <t>Coast on two adjacent sides</t>
-  </si>
-  <si>
-    <t>Coast on two opposite sides</t>
-  </si>
-  <si>
-    <t>Coast on three sides</t>
-  </si>
-  <si>
-    <t>Coast on all sides</t>
-  </si>
-  <si>
-    <t>Cliff on one side</t>
-  </si>
-  <si>
-    <t>Cliff on two adjacent sides</t>
-  </si>
-  <si>
-    <t>Cliff on two opposite sides</t>
-  </si>
-  <si>
-    <t>Cliff on three sides</t>
-  </si>
-  <si>
-    <t>Cliff on all sides</t>
-  </si>
-  <si>
-    <t>Cliff and coast</t>
-  </si>
-  <si>
-    <t>Cave system entrance</t>
-  </si>
-  <si>
-    <t>Cave system tunnel</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>There are new versions available for some landforms that you previously modified. Would you like to use the new versions, or keep the old modified ones?\n\nAffected landforms:</t>
-  </si>
-  <si>
-    <t>Replace with new data</t>
-  </si>
-  <si>
-    <t>Keep old data</t>
-  </si>
-  <si>
-    <t>Landform</t>
-  </si>
-  <si>
-    <t>Select landform</t>
-  </si>
-  <si>
-    <t>Mountains</t>
-  </si>
-  <si>
-    <t>Cave systems</t>
-  </si>
-  <si>
-    <t>northern</t>
-  </si>
-  <si>
-    <t>eastern</t>
-  </si>
-  <si>
-    <t>southern</t>
-  </si>
-  <si>
-    <t>western</t>
-  </si>
-  <si>
-    <t>northeastern</t>
-  </si>
-  <si>
-    <t>southeastern</t>
-  </si>
-  <si>
-    <t>southwestern</t>
-  </si>
-  <si>
-    <t>northwestern</t>
-  </si>
-  <si>
-    <t>(corner)</t>
-  </si>
-  <si>
-    <t>Geological Landforms</t>
-  </si>
-  <si>
-    <t>Share logs</t>
-  </si>
-  <si>
-    <t>Confirm</t>
-  </si>
-  <si>
-    <t>Upload game logs now?\n\nThis will post your game logs to a public server and give you the link to share with others. This is useful if you need help fixing a problem or would like to report an issue to a mod author.\n\nNo private information will be shared.</t>
-  </si>
-  <si>
-    <t>Log publisher</t>
-  </si>
-  <si>
-    <t>Uploading{0}</t>
-  </si>
-  <si>
-    <t>Getting link{0}</t>
-  </si>
-  <si>
-    <t>Upload complete!</t>
-  </si>
-  <si>
-    <t>Upload error: {0}</t>
-  </si>
-  <si>
-    <t>Copied to clipboard.</t>
-  </si>
-  <si>
-    <t>Abort</t>
-  </si>
-  <si>
-    <t>Retry</t>
-  </si>
-  <si>
-    <t>Open in browser</t>
-  </si>
-  <si>
-    <t>Use recommended settings</t>
-  </si>
-  <si>
-    <t>Use URL shortener</t>
-  </si>
-  <si>
-    <t>Produces a shorter link when uploading. Not recommended on Steam- short links are automatically removed.</t>
-  </si>
-  <si>
-    <t>Include platform information</t>
-  </si>
-  <si>
-    <t>Includes information about your CPU, memory and video card in the log.</t>
-  </si>
-  <si>
-    <t>Allow unlimited log size</t>
-  </si>
-  <si>
-    <t>When disabled, log size is limited to 10K lines to prevent very long logs from causing issues.</t>
-  </si>
-  <si>
-    <t>GitHub access token</t>
-  </si>
-  <si>
-    <t>Publishes logs to your own GitHub account when set. Paste a token from GitHub &gt; Settings &gt; Developer Settings &gt; Personal access tokens. Leave blank to publish to the public HugsLib account.\n\nLogs published to your account can only be viewed by others using a link.</t>
-  </si>
-  <si>
-    <t>To clipboard</t>
-  </si>
-  <si>
-    <t>Upload</t>
-  </si>
-  <si>
-    <t>Files</t>
-  </si>
-  <si>
-    <t>Open log file</t>
-  </si>
-  <si>
-    <t>Open save folder</t>
-  </si>
-  <si>
-    <t>Open mods folder</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Landforms</t>
-  </si>
-  <si>
-    <t>Biome Config</t>
-  </si>
-  <si>
-    <t>Biome Variants</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>Max landform search radius on world map</t>
-  </si>
-  <si>
-    <t>Animal amount in secluded areas (Island, Fjord, etc.)</t>
-  </si>
-  <si>
-    <t>Enable cell finder optimizations</t>
-  </si>
-  <si>
-    <t>Scale landforms with map size</t>
-  </si>
-  <si>
-    <t>Enable experimental landforms</t>
-  </si>
-  <si>
-    <t>Enable god mode (allows placing landforms manually)</t>
-  </si>
-  <si>
-    <t>Open landform editor</t>
-  </si>
-  <si>
-    <t>Reset everything to default</t>
-  </si>
-  <si>
-    <t>Open custom landform data directory</t>
-  </si>
-  <si>
-    <t>Are you sure you want to fully reset the settings for this mod, including all landform configs? This will also unrecoverably delete ALL custom landforms you created!</t>
-  </si>
-  <si>
-    <t>custom</t>
-  </si>
-  <si>
-    <t>experimental</t>
-  </si>
-  <si>
-    <t>provided by mod {0}</t>
-  </si>
-  <si>
-    <t>misconfigured with 0 commonness</t>
-  </si>
-  <si>
-    <t>replaces vanilla cliff</t>
-  </si>
-  <si>
-    <t>replaces vanilla coast</t>
-  </si>
-  <si>
-    <t>Configure for each biome whether landforms (LF) and multi-biome features (MB) can appear there:</t>
-  </si>
-  <si>
-    <t>preconfigured by author</t>
-  </si>
-  <si>
-    <t>Show advanced debug info</t>
-  </si>
-  <si>
-    <t>Use unidirectional biome transition algorithm (experimental)</t>
-  </si>
-  <si>
-    <t>Disable biome transition post-processing</t>
-  </si>
-  <si>
-    <t>Biome grid enabled (on current map)</t>
-  </si>
-  <si>
-    <t>Ignore world tile requirements (unsafe)</t>
-  </si>
-  <si>
-    <t>Replace all stone on current map</t>
-  </si>
-  <si>
-    <t>Set terrain in area</t>
-  </si>
-  <si>
-    <t>Refresh all world tiles</t>
-  </si>
-  <si>
-    <t>Refresh all world tiles (forced)</t>
-  </si>
-  <si>
-    <t>Biome grid entries</t>
-  </si>
-  <si>
-    <t>Total capacity of plant ecosystem</t>
-  </si>
-  <si>
-    <t>Open ground factor</t>
-  </si>
-  <si>
-    <t>Animal density factor</t>
-  </si>
-  <si>
-    <t>Override dev quick test map generation</t>
-  </si>
-  <si>
-    <t>Dev quick test landform</t>
-  </si>
-  <si>
-    <t>Dev quick test biome</t>
-  </si>
-  <si>
-    <t>Dev quick test map size</t>
-  </si>
-  <si>
-    <t>Add entry</t>
-  </si>
-  <si>
-    <t>Remove entry</t>
-  </si>
-  <si>
-    <t>Export all entries to Map Areas</t>
-  </si>
-  <si>
-    <t>Set base biome</t>
-  </si>
-  <si>
-    <t>Show details</t>
-  </si>
-  <si>
-    <t>Add variant</t>
-  </si>
-  <si>
-    <t>Remove variant</t>
-  </si>
-  <si>
-    <t>Set cells from Map Area</t>
-  </si>
-  <si>
-    <t>Plant commonalities</t>
-  </si>
-  <si>
-    <t>Animal commonalities</t>
-  </si>
-  <si>
-    <t>Topology direction</t>
-  </si>
-  <si>
-    <t>River width</t>
-  </si>
-  <si>
-    <t>River angle</t>
-  </si>
-  <si>
-    <t>Main road multiplier</t>
-  </si>
-  <si>
-    <t>Main road angle</t>
-  </si>
-  <si>
-    <t>Search for landform nearby</t>
-  </si>
-  <si>
-    <t>Any (POI)</t>
-  </si>
-  <si>
-    <t>Found {0} landform {1} tiles away</t>
-  </si>
-  <si>
-    <t>Could not find any {0} landform within {1} tiles (max distance can be changed in mod settings)</t>
-  </si>
-  <si>
-    <t>Set landform override (god mode)</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>coast</t>
-  </si>
-  <si>
-    <t>cove</t>
-  </si>
-  <si>
-    <t>cove with island</t>
-  </si>
-  <si>
-    <t>peninsula</t>
-  </si>
-  <si>
-    <t>isthmus</t>
-  </si>
-  <si>
-    <t>tombolo</t>
-  </si>
-  <si>
-    <t>coastal island</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>atoll</t>
-  </si>
-  <si>
-    <t>archipelago</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>lake with island</t>
-  </si>
-  <si>
-    <t>dry lake</t>
-  </si>
-  <si>
-    <t>cliff</t>
-  </si>
-  <si>
-    <t>coast with cliff</t>
-  </si>
-  <si>
-    <t>cirque</t>
-  </si>
-  <si>
-    <t>valley</t>
-  </si>
-  <si>
-    <t>canyon</t>
-  </si>
-  <si>
-    <t>lone mountain</t>
-  </si>
-  <si>
-    <t>caldera</t>
-  </si>
-  <si>
-    <t>rift</t>
-  </si>
-  <si>
-    <t>crater</t>
-  </si>
-  <si>
-    <t>oasis</t>
-  </si>
-  <si>
-    <t>swamp hill</t>
-  </si>
-  <si>
-    <t>ice oasis</t>
-  </si>
-  <si>
-    <t>badlands</t>
-  </si>
-  <si>
-    <t>desert plateau</t>
-  </si>
-  <si>
-    <t>skerry</t>
-  </si>
-  <si>
-    <t>fjord</t>
-  </si>
-  <si>
-    <t>secluded cove</t>
-  </si>
-  <si>
-    <t>surface cave</t>
-  </si>
-  <si>
-    <t>cave entrance</t>
-  </si>
-  <si>
-    <t>sinkhole</t>
-  </si>
-  <si>
-    <t>secluded valley</t>
-  </si>
-  <si>
     <t>Keyed+GeologicalLandforms.Settings.Landform.AllowedBiomes</t>
   </si>
   <si>
@@ -5528,6 +5872,18 @@
     <t>Biome</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지형</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GeologicalLandforms.Settings.Landform.AllowedBiomes.Some</t>
   </si>
   <si>
@@ -5537,6 +5893,30 @@
     <t>Keyed+GeologicalLandforms.Settings.Landform.WorldObjectNearby</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>({0} biomes selected)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>({0} 지형 선택됨)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landform.WorldObjectNearby</t>
   </si>
   <si>
@@ -5546,6 +5926,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Landform.WorldObjectNearby.Some</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>근처 세계 객체</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landform.WorldObjectNearby.Some</t>
   </si>
   <si>
@@ -5555,6 +5947,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Landform.AllowedRiverTypes</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>({0} 세계 객체)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landform.AllowedRiverTypes</t>
   </si>
   <si>
@@ -5564,6 +5968,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Landform.AllowedRiverTypes.Some</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>강 형태</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landform.AllowedRiverTypes.Some</t>
   </si>
   <si>
@@ -5573,6 +5989,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Landform.RiverOrRoadRequirement</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>({0} 형태 선택됨)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landform.RiverOrRoadRequirement</t>
   </si>
   <si>
@@ -5582,6 +6010,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Landform.AddRequirement</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>강 또는 도로</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landform.AddRequirement</t>
   </si>
   <si>
@@ -5591,6 +6031,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Landform.LayerId</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>요구 사항 추가</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landform.LayerId</t>
   </si>
   <si>
@@ -5600,6 +6052,18 @@
     <t>Keyed+GeologicalLandforms.Integration.MapDesigner.RiverCardOverride</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>층</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Integration.MapDesigner.RiverCardOverride</t>
   </si>
   <si>
@@ -5609,6 +6073,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Landforms.ReplacesVanillaRiver</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지질학적 지형에서 강과 해안을 무시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Landforms.ReplacesVanillaRiver</t>
   </si>
   <si>
@@ -5618,6 +6094,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Debug.BiomeGridEntryRegenerateAllShort</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>바닐라 강 교체</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryRegenerateAllShort</t>
   </si>
   <si>
@@ -5627,6 +6115,18 @@
     <t>Keyed+GeologicalLandforms.Settings.Debug.BiomeGridEntryRegenerateAll</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>재생성</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Settings.Debug.BiomeGridEntryRegenerateAll</t>
   </si>
   <si>
@@ -5636,6 +6136,18 @@
     <t>Keyed+GeologicalLandforms.Landform.River</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세계 타일에서 재생성</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.River</t>
   </si>
   <si>
@@ -5645,30 +6157,138 @@
     <t>Keyed+GeologicalLandforms.Landform.RiverTerrain</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>강</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.RiverTerrain</t>
   </si>
   <si>
     <t>Keyed+GeologicalLandforms.Landform.RiverConfluence</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>river terrain</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>강 지형</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.RiverConfluence</t>
   </si>
   <si>
     <t>Keyed+GeologicalLandforms.Landform.RiverSource</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>river confluence</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>합류점</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.RiverSource</t>
   </si>
   <si>
     <t>Keyed+GeologicalLandforms.Landform.RiverIsland</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>river source</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>발원지</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.RiverIsland</t>
   </si>
   <si>
     <t>Keyed+GeologicalLandforms.Landform.RiverDelta</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>river island</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>하중도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.RiverDelta</t>
   </si>
   <si>
@@ -5678,127 +6298,91 @@
     <t>Keyed+GeologicalLandforms.Landform.Gorge</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>삼각주</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>GeologicalLandforms.Landform.Gorge</t>
   </si>
   <si>
     <t>gorge</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>협곡</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed+GeologicalLandforms.Landform.Glacier</t>
   </si>
   <si>
     <t>GeologicalLandforms.Landform.Glacier</t>
   </si>
   <si>
-    <t>({0} biomes selected)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>({0} 지형 선택됨)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처 세계 객체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>({0} 세계 객체)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강 형태</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>({0} 형태 선택됨)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강 또는 도로</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 사항 추가</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>층</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지질학적 지형에서 강과 해안을 무시</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닐라 강 교체</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>재생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계 타일에서 재생성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>강 지형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼각주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>river island</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>하중도</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>river source</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>발원지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>river confluence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>합류점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>river terrain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>협곡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙하</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>glacier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음 오아시스</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>glacier</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>빙하</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>지질 지형</t>
+  </si>
+  <si>
+    <t>생물군계 전이</t>
+  </si>
+  <si>
+    <t>{0} 모드에서 추가된 지형입니다.</t>
+  </si>
+  <si>
+    <t>(지형)</t>
+  </si>
+  <si>
+    <t>{1}의 "{0}" 지역 특징을 대체합니다</t>
+  </si>
+  <si>
+    <t>{1}의 "{0}" 지역 특징으로 인해 불필요해졌습니다</t>
+  </si>
+  <si>
+    <t>알림: 방금 활성화한 "{0}" 지형이 {2}의 "{1}" 지역 특징과 충돌하므로, 해당 {2} 지역 특징이 자동으로 비활성화되었습니다.</t>
+  </si>
+  <si>
+    <t>알림: 방금 활성화한 {2}의 "{1}" 지역 특징이 "{0}" 지형과 충돌하므로, 해당 "{0}" 지형이 자동으로 비활성화되었습니다.</t>
+  </si>
+  <si>
+    <t>인접한 지역의 생물군계가 이 지역의 일부를 덮습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6175,10 +6759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="H205" sqref="H205"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="K242" sqref="K242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6218,4102 +6802,4171 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>413</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>664</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>665</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>666</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>667</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>668</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>669</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>670</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>671</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>672</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>673</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>674</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>675</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>676</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>677</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>678</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>679</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>680</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>681</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>682</v>
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>683</v>
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>684</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>685</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>686</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>687</v>
+        <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>688</v>
+        <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>689</v>
+        <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>690</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>691</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>692</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>693</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>694</v>
+        <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>695</v>
+        <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>696</v>
+        <v>141</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>697</v>
+        <v>145</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>698</v>
+        <v>149</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>699</v>
+        <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>700</v>
+        <v>157</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>701</v>
+        <v>161</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>702</v>
+        <v>165</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>703</v>
+        <v>169</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>704</v>
+        <v>173</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>705</v>
+        <v>177</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>706</v>
+        <v>181</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>707</v>
+        <v>185</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>708</v>
+        <v>189</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>709</v>
+        <v>193</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>710</v>
+        <v>197</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>711</v>
+        <v>201</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>712</v>
+        <v>205</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>713</v>
+        <v>209</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>714</v>
+        <v>213</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>715</v>
+        <v>217</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>716</v>
+        <v>221</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>717</v>
+        <v>225</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>227</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>718</v>
+        <v>229</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>719</v>
+        <v>233</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>720</v>
+        <v>237</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>721</v>
+        <v>241</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>722</v>
+        <v>245</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>723</v>
+        <v>249</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>724</v>
+        <v>253</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>725</v>
+        <v>257</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>726</v>
+        <v>261</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>727</v>
+        <v>265</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>728</v>
+        <v>269</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>729</v>
+        <v>273</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>730</v>
+        <v>277</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>731</v>
+        <v>281</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>695</v>
+        <v>137</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>732</v>
+        <v>288</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>733</v>
+        <v>292</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>734</v>
+        <v>296</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>735</v>
+        <v>300</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>736</v>
+        <v>304</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>737</v>
+        <v>308</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>738</v>
+        <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>739</v>
+        <v>316</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>242</v>
+        <v>319</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>740</v>
+        <v>320</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>741</v>
+        <v>324</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>742</v>
+        <v>328</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>743</v>
+        <v>332</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>252</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>744</v>
+        <v>336</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>256</v>
+        <v>338</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>24</v>
+        <v>339</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>260</v>
+        <v>341</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>263</v>
+        <v>345</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>266</v>
+        <v>349</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>267</v>
+        <v>352</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>269</v>
+        <v>353</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>272</v>
+        <v>357</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>275</v>
+        <v>361</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>278</v>
+        <v>365</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>281</v>
+        <v>369</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>282</v>
+        <v>372</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>284</v>
+        <v>373</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>287</v>
+        <v>377</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+        <v>385</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+        <v>389</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>297</v>
+        <v>392</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+        <v>397</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+        <v>401</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>306</v>
+        <v>404</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+        <v>405</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+        <v>409</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+        <v>413</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+        <v>417</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+        <v>421</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+        <v>425</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>324</v>
+        <v>428</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>327</v>
+        <v>432</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>338</v>
+        <v>445</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>340</v>
+        <v>449</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>772</v>
+        <v>450</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>343</v>
+        <v>453</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>773</v>
+        <v>447</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>344</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>346</v>
+        <v>457</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>774</v>
+        <v>458</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>347</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>348</v>
+        <v>460</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>775</v>
+        <v>462</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>350</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>351</v>
+        <v>464</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>352</v>
+        <v>465</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>776</v>
+        <v>466</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>353</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>354</v>
+        <v>468</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>355</v>
+        <v>469</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>777</v>
+        <v>470</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>356</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>358</v>
+        <v>473</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>778</v>
+        <v>474</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>359</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>779</v>
+        <v>478</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>362</v>
+        <v>479</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>363</v>
+        <v>480</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>364</v>
+        <v>481</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>780</v>
+        <v>482</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>365</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>366</v>
+        <v>484</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>367</v>
+        <v>485</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>781</v>
+        <v>486</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>368</v>
+        <v>487</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>369</v>
+        <v>488</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>370</v>
+        <v>489</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>782</v>
+        <v>490</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>783</v>
+        <v>494</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>784</v>
+        <v>498</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>377</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>378</v>
+        <v>500</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>379</v>
+        <v>501</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>785</v>
+        <v>502</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>380</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>381</v>
+        <v>504</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>382</v>
+        <v>505</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>786</v>
+        <v>506</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>384</v>
+        <v>508</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>787</v>
+        <v>510</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>386</v>
+        <v>511</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>387</v>
+        <v>512</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>388</v>
+        <v>513</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>788</v>
+        <v>514</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>390</v>
+        <v>516</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>789</v>
+        <v>518</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>392</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>393</v>
+        <v>520</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>394</v>
+        <v>521</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>790</v>
+        <v>522</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>395</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>396</v>
+        <v>524</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>397</v>
+        <v>525</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>791</v>
+        <v>526</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>398</v>
+        <v>527</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>399</v>
+        <v>528</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>792</v>
+        <v>530</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>401</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>402</v>
+        <v>532</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>403</v>
+        <v>533</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>793</v>
+        <v>534</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>404</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>794</v>
+        <v>538</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>407</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>408</v>
+        <v>540</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>409</v>
+        <v>541</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>795</v>
+        <v>542</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>411</v>
+        <v>544</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>412</v>
+        <v>545</v>
       </c>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>414</v>
+        <v>546</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>415</v>
+        <v>547</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>796</v>
+        <v>548</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>416</v>
+        <v>549</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>417</v>
+        <v>550</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>418</v>
+        <v>551</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>797</v>
+        <v>552</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>419</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>420</v>
+        <v>554</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>421</v>
+        <v>555</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>798</v>
+        <v>556</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>422</v>
+        <v>557</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>423</v>
+        <v>558</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>799</v>
+        <v>560</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>425</v>
+        <v>561</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>426</v>
+        <v>562</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>427</v>
+        <v>563</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>800</v>
+        <v>564</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>428</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>429</v>
+        <v>566</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>430</v>
+        <v>567</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>801</v>
+        <v>568</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>431</v>
+        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>432</v>
+        <v>570</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>433</v>
+        <v>571</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>802</v>
+        <v>572</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>434</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>435</v>
+        <v>574</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>436</v>
+        <v>575</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>803</v>
+        <v>576</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>437</v>
+        <v>577</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>438</v>
+        <v>578</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>439</v>
+        <v>579</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>804</v>
+        <v>580</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>440</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>441</v>
+        <v>582</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>442</v>
+        <v>583</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>805</v>
+        <v>584</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>443</v>
+        <v>585</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>444</v>
+        <v>586</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>445</v>
+        <v>587</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>806</v>
+        <v>588</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>446</v>
+        <v>589</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>447</v>
+        <v>590</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>448</v>
+        <v>591</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>807</v>
+        <v>592</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>449</v>
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>450</v>
+        <v>594</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>451</v>
+        <v>595</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>808</v>
+        <v>596</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>452</v>
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>453</v>
+        <v>598</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>809</v>
+        <v>600</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>455</v>
+        <v>601</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>456</v>
+        <v>602</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>457</v>
+        <v>603</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>810</v>
+        <v>604</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>458</v>
+        <v>605</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>459</v>
+        <v>606</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>460</v>
+        <v>607</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>811</v>
+        <v>608</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>461</v>
+        <v>609</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>462</v>
+        <v>610</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>463</v>
+        <v>611</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>464</v>
+        <v>612</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>464</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>465</v>
+        <v>613</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>466</v>
+        <v>614</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>467</v>
+        <v>615</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>467</v>
+        <v>615</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>468</v>
+        <v>616</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>469</v>
+        <v>617</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>470</v>
+        <v>618</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>470</v>
+        <v>618</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>471</v>
+        <v>619</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>472</v>
+        <v>620</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>473</v>
+        <v>621</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>473</v>
+        <v>621</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>474</v>
+        <v>622</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>475</v>
+        <v>623</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>476</v>
+        <v>624</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>476</v>
+        <v>624</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>477</v>
+        <v>625</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>479</v>
+        <v>627</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>479</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>480</v>
+        <v>628</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>481</v>
+        <v>629</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>482</v>
+        <v>630</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>482</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>483</v>
+        <v>631</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>484</v>
+        <v>632</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>485</v>
+        <v>633</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>485</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>486</v>
+        <v>634</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>487</v>
+        <v>635</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>812</v>
+        <v>636</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>488</v>
+        <v>637</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>489</v>
+        <v>638</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>490</v>
+        <v>639</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>813</v>
+        <v>640</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>491</v>
+        <v>641</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>492</v>
+        <v>642</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>493</v>
+        <v>643</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>814</v>
+        <v>644</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>494</v>
+        <v>645</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>495</v>
+        <v>646</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>496</v>
+        <v>647</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>815</v>
+        <v>648</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>497</v>
+        <v>649</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>498</v>
+        <v>650</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>499</v>
+        <v>651</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>816</v>
+        <v>652</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>500</v>
+        <v>653</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>501</v>
+        <v>654</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>502</v>
+        <v>655</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>817</v>
+        <v>656</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>503</v>
+        <v>657</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>504</v>
+        <v>658</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>505</v>
+        <v>659</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>818</v>
+        <v>660</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>506</v>
+        <v>661</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>507</v>
+        <v>662</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>508</v>
+        <v>663</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>819</v>
+        <v>664</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>509</v>
+        <v>665</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>510</v>
+        <v>666</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>511</v>
+        <v>667</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>820</v>
+        <v>668</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>512</v>
+        <v>669</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>513</v>
+        <v>670</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>514</v>
+        <v>671</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>821</v>
+        <v>672</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>515</v>
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>517</v>
+        <v>675</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>686</v>
+        <v>101</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>518</v>
+        <v>676</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>519</v>
+        <v>677</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>822</v>
+        <v>678</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>520</v>
+        <v>679</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>521</v>
+        <v>680</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>522</v>
+        <v>681</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>694</v>
+        <v>133</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>523</v>
+        <v>682</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>524</v>
+        <v>683</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>525</v>
+        <v>684</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>823</v>
+        <v>685</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>526</v>
+        <v>686</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>527</v>
+        <v>687</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>528</v>
+        <v>688</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>824</v>
+        <v>689</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>529</v>
+        <v>690</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>530</v>
+        <v>691</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>531</v>
+        <v>692</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>825</v>
+        <v>693</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>532</v>
+        <v>694</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>533</v>
+        <v>695</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>534</v>
+        <v>696</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>826</v>
+        <v>697</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>535</v>
+        <v>698</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>536</v>
+        <v>699</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>537</v>
+        <v>700</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>697</v>
+        <v>145</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>538</v>
+        <v>701</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>539</v>
+        <v>702</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>540</v>
+        <v>703</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>827</v>
+        <v>454</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>541</v>
+        <v>705</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>542</v>
+        <v>706</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>543</v>
+        <v>707</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>544</v>
+        <v>708</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>545</v>
+        <v>709</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>828</v>
+        <v>443</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>546</v>
+        <v>711</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>547</v>
+        <v>712</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>548</v>
+        <v>713</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>829</v>
+        <v>710</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>550</v>
+        <v>716</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>551</v>
+        <v>717</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>830</v>
+        <v>714</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>552</v>
+        <v>719</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>553</v>
+        <v>720</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>554</v>
+        <v>721</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>831</v>
+        <v>722</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>555</v>
+        <v>723</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>556</v>
+        <v>724</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>557</v>
+        <v>725</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>832</v>
+        <v>726</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>558</v>
+        <v>727</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>559</v>
+        <v>728</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>560</v>
+        <v>729</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>833</v>
+        <v>730</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>561</v>
+        <v>731</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>562</v>
+        <v>732</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>563</v>
+        <v>733</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>833</v>
+        <v>730</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>561</v>
+        <v>731</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>564</v>
+        <v>734</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>565</v>
+        <v>735</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>834</v>
+        <v>736</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>566</v>
+        <v>737</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>567</v>
+        <v>738</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>568</v>
+        <v>739</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>835</v>
+        <v>740</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>569</v>
+        <v>741</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>570</v>
+        <v>742</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>571</v>
+        <v>743</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>836</v>
+        <v>744</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>572</v>
+        <v>745</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>573</v>
+        <v>746</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>574</v>
+        <v>747</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>837</v>
+        <v>748</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>575</v>
+        <v>749</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>576</v>
+        <v>750</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>577</v>
+        <v>751</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>838</v>
+        <v>752</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>578</v>
+        <v>753</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>579</v>
+        <v>754</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>580</v>
+        <v>755</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>839</v>
+        <v>756</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>581</v>
+        <v>757</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>582</v>
+        <v>758</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>583</v>
+        <v>759</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>584</v>
+        <v>761</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>585</v>
+        <v>762</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>586</v>
+        <v>763</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>841</v>
+        <v>764</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>587</v>
+        <v>765</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>588</v>
+        <v>766</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>589</v>
+        <v>767</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>842</v>
+        <v>768</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>590</v>
+        <v>769</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>591</v>
+        <v>770</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>592</v>
+        <v>771</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>843</v>
+        <v>772</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>593</v>
+        <v>773</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>594</v>
+        <v>774</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>595</v>
+        <v>775</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>844</v>
+        <v>776</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>596</v>
+        <v>777</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>597</v>
+        <v>778</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>598</v>
+        <v>779</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>845</v>
+        <v>780</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>599</v>
+        <v>781</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>600</v>
+        <v>782</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>601</v>
+        <v>783</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>846</v>
+        <v>784</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>602</v>
+        <v>785</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>603</v>
+        <v>786</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>604</v>
+        <v>787</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>846</v>
+        <v>784</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>602</v>
+        <v>785</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>605</v>
+        <v>788</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>606</v>
+        <v>789</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>847</v>
+        <v>790</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>607</v>
+        <v>791</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>608</v>
+        <v>792</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>609</v>
+        <v>793</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>848</v>
+        <v>794</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>610</v>
+        <v>795</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>611</v>
+        <v>796</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>612</v>
+        <v>797</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>849</v>
+        <v>798</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>613</v>
+        <v>799</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>614</v>
+        <v>800</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>615</v>
+        <v>801</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>850</v>
+        <v>802</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>616</v>
+        <v>803</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>617</v>
+        <v>804</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>618</v>
+        <v>805</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>851</v>
+        <v>806</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>619</v>
+        <v>807</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>620</v>
+        <v>808</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>621</v>
+        <v>809</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>852</v>
+        <v>810</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>622</v>
+        <v>811</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>623</v>
+        <v>812</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>624</v>
+        <v>813</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>853</v>
+        <v>814</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>625</v>
+        <v>815</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>626</v>
+        <v>816</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>627</v>
+        <v>817</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>628</v>
+        <v>819</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>629</v>
+        <v>820</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>630</v>
+        <v>821</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>631</v>
+        <v>823</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>632</v>
+        <v>824</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>633</v>
+        <v>825</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>634</v>
+        <v>827</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>635</v>
+        <v>828</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>636</v>
+        <v>829</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>857</v>
+        <v>830</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>951</v>
+        <v>832</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>637</v>
+        <v>831</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>638</v>
+        <v>833</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>639</v>
+        <v>835</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>640</v>
+        <v>836</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>641</v>
+        <v>837</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>642</v>
+        <v>839</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>643</v>
+        <v>840</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>644</v>
+        <v>841</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>645</v>
+        <v>843</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>646</v>
+        <v>844</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>647</v>
+        <v>845</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>648</v>
+        <v>847</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>649</v>
+        <v>848</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>650</v>
+        <v>849</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>651</v>
+        <v>851</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>652</v>
+        <v>852</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>653</v>
+        <v>853</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>654</v>
+        <v>855</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>655</v>
+        <v>856</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>656</v>
+        <v>857</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>657</v>
+        <v>859</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>658</v>
+        <v>860</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>659</v>
+        <v>861</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>660</v>
+        <v>863</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>661</v>
+        <v>864</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>662</v>
+        <v>865</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>866</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>663</v>
+        <v>867</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>925</v>
+        <v>871</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>924</v>
+        <v>875</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>927</v>
+        <v>880</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>928</v>
+        <v>884</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>929</v>
+        <v>888</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>930</v>
+        <v>892</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>931</v>
+        <v>896</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>932</v>
+        <v>900</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>933</v>
+        <v>904</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>919</v>
+        <v>943</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>920</v>
+        <v>945</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>921</v>
+        <v>946</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>950</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>955</v>
       </c>
     </row>
   </sheetData>
